--- a/pre-processing/data_cleaned/laptop.xlsx
+++ b/pre-processing/data_cleaned/laptop.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>laptop dell inspiron 3530 71043887( core i5-1334u| 8gb| 512gb ssd| intel iris xe graphics| 15.6" fhd| đen(black)) - hang chinh hang - bao hanh chinh hang tai dell viet nam</t>
+          <t>dell inspiron 3530</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>laptop dell inspiron 15 3530 n3530-i3u085w11slu (core i3-1305u| 8gb| 512gb ssd| 15.6" fhd| bac) - hang chinh hang - bao hanh 12 thang tai dell viet nam</t>
+          <t>dell inspiron 15 3530</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>asus vivobook s 14 flip tp3402va-lz632w (intel core i5-13420h | 16gb | 512gb | intel uhd | 14 inch wuxga ips | win 11 | bac) - hang chinh hang</t>
+          <t>asus vivobook s 14 flip</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>asus vivobook 15 x1502va-bq886w (intel core i7-13620h | 16gb | 512gb | intel iris xe | 15.6 inch fhd ips | win 11 | bac) - hang chinh hang</t>
+          <t>asus vivobook 15</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>asus vivobook 14 x1405va-ly623w (intel core i5-13420h | 16gb | 512gb | 14 inch wuxga | win 11 | bac) - hang chinh hang</t>
+          <t>asus vivobook 14</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>asus vivobook x1404va-nk394w (intel core i3-1315u | intel uhd graphics | 14 inch fhd | 8gb | 512gb | win 11 home | bac) - hang chinh hang</t>
+          <t>asus vivobook x1404</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>asus zenbook 14 ux3405ca-pz204ws (intel core ultra 9 285h | 32gb | 1tb | intel arc | 14 inch 3k oled | cam ung | win 11 | office | xanh) - hang chinh hang</t>
+          <t>asus zenbook 14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>asus rog strix g16 g614ju-n3480w (intel core i5-13450hx | rtx 4050 6gb | 16 inch fhd + 165hz | 16gb | 512gb | win 11 | xam) - hang chinh hang</t>
+          <t>asus rog strix g16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>laptop asus tuf gaming a15 fa506ncr-hn097w (r7 7435hs/ 16gb/ 512gb ssd/ rtx 3050 4gb/ 15.6 inch fhd/ 144hz/ win11/ black) - hang chinh hang</t>
+          <t>asus tuf gaming a15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>laptop lenovo thinkpad e14 gen 7 21sx002qva (intel core ultra 5 225u | 16gb | 512gb | 14 inch wuxga | intel graphics | noos | đen) - hang chinh hang</t>
+          <t>lenovo thinkpad e14 gen 7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>macbook air m4 (13 inch, 16gb/ 256gb) - mw0y3sa/a - vang anh sao</t>
+          <t>macbook air m4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>laptop lenovo v15 gen 4 ( 83a100rgvn ) | grey | intel core i7-13620h | ram 8gb | 512gb ssd | intel uhd graphics | 15.6 inch fhd | no os | 2yrs - hang chinh hang</t>
+          <t>lenovo v15 gen 4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>asus vivobook 15 x1504za-nj1039w (intel core i7-1255u | 16gb | 512gb | intel iris xe | 15.6 inch fhd | win 11 | bac) - hang chinh hang</t>
+          <t>asus vivobook 15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>msi gaming thin 15 b13ucx-2080vn (i5 13420h/ 16gb/ 512gb ssd/ rtx 2050 4gb/ 15.6 inch fhd/ 144hz/ win11/ gray/ 2y/ balo) - hang chinh hang</t>
+          <t>msi gaming thin 15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>laptop hp gaming victus 15-fb1023ax 94f20pa (r5 7535hs/ 8gb/ 512gb ssd/ rtx 2050 4gb/ 15.6 inch fhd/ 144hz/ win11/ silver) - hang chinh hang</t>
+          <t>hp gaming victus 15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>may tinh xach tay laptop samsung galaxy chromebook go xe310xda n4500/4gb/32gb/chromeos - hang chinh hang</t>
+          <t>samsung galaxy chromebook go</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>laptop dell inspiron 15 3520 25p2311 (intel core i5-1235u | 8gb | 512gb | intel iris xe graphics | 15.6 inch fhd | win 11 | office | bac) - hang chinh hang - bao hanh 12 thang</t>
+          <t>dell inspiron 15 3520</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>laptop asus zenbook s 14 oled ux5406sa-pv140ws (intel core ultra 7 processor 258v | 14 inch 3k oled | intel arc | 32gb | 1tb | win 11 | office |trang) - hang chinh hang</t>
+          <t>asus zenbook s 14 oled</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>laptop asus vivobook 15 oled a1505va-l1341w (core i5-13500h | 16gb | 512gb | intel iris xe | 15.6inch fhd oled | win 11 | đen) - hang chinh hang</t>
+          <t>asus vivobook 15 oled</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1247,11 +1247,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>275854386</v>
+        <v>275382480</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>laptop hp 15 fd1045tu 9z2x1pa (core 5 120u/ 16gb/ 512gb ssd/ 15.6 inch fhd/ win11/ bac) - hang chinh hang</t>
+          <t>hp probook 440 g10</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1261,25 +1261,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>images/laptop/product_275854386.jpg</t>
+          <t>images/laptop/product_275382480.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/17/93/c9/92ea6fef866fb2a67c549c959384cdf3.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7a/8c/49/769235be295bc27dc8dca20f664bb5b1.jpeg</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>16655000</v>
+        <v>18780000</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>275854387</v>
+        <v>275382483</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1287,39 +1287,39 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>275382480</v>
+        <v>274643985</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>laptop hp probook 440 g10 (873b1pa) (i5 1340p/8gb ram/512gb ssd/14 fhd cam ung/win11/bac) - hang chinh hang - bao hanh 12 thang</t>
+          <t>asus expertbook b1400</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>hp</t>
+          <t>asus</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>images/laptop/product_275382480.jpg</t>
+          <t>images/laptop/product_274643985.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7a/8c/49/769235be295bc27dc8dca20f664bb5b1.jpeg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/61/07/31ed28cfaca4174838bf1eac0744dd8b.png</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>18780000</v>
+        <v>13155000</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>275382483</v>
+        <v>274643987</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1327,39 +1327,39 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>275269577</v>
+        <v>274419342</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>laptop asus vivobook 15 x1504za i3 1215u/8gb/512gb/win11 (nj102w) - hang chinh hang</t>
+          <t>acer aspire a314</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>asus</t>
+          <t>acer</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>images/laptop/product_275269577.jpg</t>
+          <t>images/laptop/product_274419342.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b7/ff/65/e919c1be4ff68b0a6633c7b9730c4da8.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/88/bc/e7/7c6c09e33dca2ac63f19c85e06ce940c.png</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>11450000</v>
+        <v>11850000</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>275269578</v>
+        <v>274419343</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1367,39 +1367,39 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>274643985</v>
+        <v>274378954</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>may vi tinh laptop asus expertbook b1400 (chip intel core i5-1235u | ram 16gb | ssd 512gb nvme | 14' full hd | bao mat van tay | bao mat tpm 2.0 | đo ben chuan quan đoi us) - hang chinh hang</t>
+          <t>msi katana 15</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>asus</t>
+          <t>msi</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>images/laptop/product_274643985.jpg</t>
+          <t>images/laptop/product_274378954.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/61/07/31ed28cfaca4174838bf1eac0744dd8b.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3b/c5/a3/390d6035c1b752425f693d431ca9a42e.png</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>13155000</v>
+        <v>27500000</v>
       </c>
       <c r="G24" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>274643987</v>
+        <v>274378955</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1407,39 +1407,39 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>274419342</v>
+        <v>273949286</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>laptop acer aspire a314 42p r3b3 nx.ksfsv.001 (ryzen 7 5700u/ 16gb/ 512gb ssd/ amd radeon graphics/ 14.0inch full hd+/ windows 11 home/ silver/ 1 year) - hang chinh hang - bao hanh 12 thang</t>
+          <t>asus expertbook b1502</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>acer</t>
+          <t>asus</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>images/laptop/product_274419342.jpg</t>
+          <t>images/laptop/product_273949286.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/88/bc/e7/7c6c09e33dca2ac63f19c85e06ce940c.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c3/38/e0/78676b0c573733c58a097aaa70a97d37.jpg</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>11850000</v>
+        <v>13255000</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>274419343</v>
+        <v>273949287</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1447,30 +1447,30 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>274378954</v>
+        <v>252566514</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>laptop msi katana 15 b13vfk 676vn | cpu i7-13620h | ram 16gb ddr5 | ssd 1tb pcle | vga rtx 4060 8gb | 15.6 fhd ips 144hz | win11 - hang chinh hang - bao hanh 24 thang</t>
+          <t>asus vivobook 15</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>msi</t>
+          <t>asus</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>images/laptop/product_274378954.jpg</t>
+          <t>images/laptop/product_252566514.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3b/c5/a3/390d6035c1b752425f693d431ca9a42e.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8c/8c/a8/09b97e025f344d0e0d05245926f65ba6.png</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>27500000</v>
+        <v>14950000</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>274378955</v>
+        <v>252566515</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1487,39 +1487,39 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>273949286</v>
+        <v>248830867</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>laptop asus expertbook b1502 - b1502cv (intel core i5-1335u | ram 8gb | 512gb ssd | intel uhd graphics | 15.6 inch full hd | win 11 ban quyen) - hang chinh hang</t>
+          <t>lg monitor 32mp60g-b</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>asus</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>images/laptop/product_273949286.jpg</t>
+          <t>images/laptop/product_248830867.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c3/38/e0/78676b0c573733c58a097aaa70a97d37.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b0/fd/be/68e480053bf68493232c75df86b66978.jpg</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>13255000</v>
+        <v>5740000</v>
       </c>
       <c r="G27" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>273949287</v>
+        <v>253176498</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1527,30 +1527,30 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>272828266</v>
+        <v>247666447</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>laptop asus vivobook go 14 e1404fa-nk177w (ryzen 5 7520u | 16gb | 512gb | 14 inch fhd | amd radeon graphics | win 11 | bac) - hang chinh hang</t>
+          <t>lenovo ideapad gaming 3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>asus</t>
+          <t>lenovo</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>images/laptop/product_272828266.jpg</t>
+          <t>images/laptop/product_247666447.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/85/45/9b/5fb899d41a0f8d927c64f126794bc312.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/90/73/99/0db8369e7873ef63ad813e9b81ddd5d2.png</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>11040000</v>
+        <v>20970000</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>272828267</v>
+        <v>247666448</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1567,11 +1567,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>252566514</v>
+        <v>247656002</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>may tinh xach tay laptop asus vivobook 15 bac/ intel core i3-1315u processor (upto 4.5ghz, 10mb)/ ram 8gb/ 512gb ssd/ intel uhd graphics/ 15.6inch fhd/ win 11h/ 2yrs - hang chinh hang</t>
+          <t>asus zenbook q409za</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1581,16 +1581,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>images/laptop/product_252566514.jpg</t>
+          <t>images/laptop/product_247656002.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8c/8c/a8/09b97e025f344d0e0d05245926f65ba6.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/75/d9/6da0b65232beac5e3b73274eabd1a6ec.png</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>14950000</v>
+        <v>17950000</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>252566515</v>
+        <v>247656007</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1607,39 +1607,39 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>248830867</v>
+        <v>225195616</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>man hinh lg ips 32mp60g-b 31.5'' full hd amd freesync - hang chinh hang</t>
+          <t>msi gf63 thin</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>msi</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>images/laptop/product_248830867.jpg</t>
+          <t>images/laptop/product_225195616.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b0/fd/be/68e480053bf68493232c75df86b66978.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5d/14/2c/31fa634784e91004778549ee9f7915a9.jpg</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5740000</v>
+        <v>19870000</v>
       </c>
       <c r="G30" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>253176498</v>
+        <v>225195617</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -1647,30 +1647,30 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>247666447</v>
+        <v>225195387</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>laptop lenovo ideapad gaming 3 15arh7 82sb007mvn | amd ryzen 7 6800h | 16gb | 512gb ssd | rtx 3050 ti 4gb | 15.6 inch full hd ips 120hz | win 11 | led key rgb | hang chinh hang</t>
+          <t>asus vivobook r565ea</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>lenovo</t>
+          <t>asus</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>images/laptop/product_247666447.jpg</t>
+          <t>images/laptop/product_225195387.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/90/73/99/0db8369e7873ef63ad813e9b81ddd5d2.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/b7/8b/7bd87c7e4ce32d719b9a55391d746ad7.jpg</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>20970000</v>
+        <v>15970000</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>247666448</v>
+        <v>225195388</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -1687,30 +1687,30 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>247656002</v>
+        <v>214863390</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>may tinh xach tay laptop asus zenbook q409za-ev0.i5256bl ( intel core i5.1240p/8gb lpddr4/ssd 256gb/intel iris xe graphics/14inch oled wq/win11/blue ) - hang chinh hang</t>
+          <t>lg gram 14</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>asus</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>images/laptop/product_247656002.jpg</t>
+          <t>images/laptop/product_214863390.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/75/d9/6da0b65232beac5e3b73274eabd1a6ec.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/38/4f/c1/f6e0f64980bc4f9cd51a23eba78c3cba.jpg</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>17950000</v>
+        <v>22210000</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>247656007</v>
+        <v>225954311</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -1727,39 +1727,39 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>225195616</v>
+        <v>214863343</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>may tinh xach tay laptop msi gf63 thin 11uc-444vn (i5 11400h/8gb/512gb/15.6"fhd/nvidia geforce rtx 3050 4gb/win10_ đen) - hang chinh hang</t>
+          <t>lg gram 14</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>msi</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>images/laptop/product_225195616.jpg</t>
+          <t>images/laptop/product_214863343.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5d/14/2c/31fa634784e91004778549ee9f7915a9.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ec/42/56/cb83392c7e5091d9faeca52cd29348c5.jpg</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>19870000</v>
+        <v>22210000</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>225195617</v>
+        <v>225954306</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -1767,30 +1767,30 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>225195387</v>
+        <v>206840788</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>may tinh xach tay man hinh cam ung laptop asus vivobook r565ea-uh51t (core i5-1135g7, 8gb ram, 256gb ssd, 15.6 inch fhd cam ung, win10, xam - hang chinh hang</t>
+          <t>lenovo thinkpad e15 gen 4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>asus</t>
+          <t>lenovo</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>images/laptop/product_225195387.jpg</t>
+          <t>images/laptop/product_206840788.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/b7/8b/7bd87c7e4ce32d719b9a55391d746ad7.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a7/ae/3a/d7aaa7c0bae2a1059d79e9d7870006af.jpg</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>15970000</v>
+        <v>18820000</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>225195388</v>
+        <v>242106763</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -1807,30 +1807,30 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>214863390</v>
+        <v>206307542</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>laptop lg gram 2022 14zd90q-g.ax31a5 (i3-1220p | 8gb | 256gb | intel uhd graphics | 14' wuxga 99% dci-p3 | dos) hang chinh hang</t>
+          <t>hp pavilion 15</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>hp</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>images/laptop/product_214863390.jpg</t>
+          <t>images/laptop/product_206307542.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/38/4f/c1/f6e0f64980bc4f9cd51a23eba78c3cba.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3f/a6/a4/140ce4c6780c706edcfdcabcf61950b0.png</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>22210000</v>
+        <v>14520000</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>225954311</v>
+        <v>203972134</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -1847,270 +1847,270 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>214863343</v>
+        <v>189371737</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>(hang khong qua tang) laptop lg gram 2022 14zd90q-g.ax31a5-d (i3-1220p | 8gb | 256gb | intel uhd graphics | 14' wuxga) hang chinh hang</t>
+          <t>macbook air m2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>images/laptop/product_214863343.jpg</t>
+          <t>images/laptop/product_189371737.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ec/42/56/cb83392c7e5091d9faeca52cd29348c5.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/media/catalog/producttmp/5d/f8/b9/8a014046b6dff053e26820da02169d2a.jpg</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>22210000</v>
+        <v>19960000</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>225954306</v>
+        <v>201859611</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>206840788</v>
+        <v>108924121</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>laptop lenovo thinkpad e15 gen 4 21e600cmva (đen) - tang  chuot zadez m-331 - hang chinh hang</t>
+          <t>dell latitude 3520</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>lenovo</t>
+          <t>dell</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>images/laptop/product_206840788.jpg</t>
+          <t>images/laptop/product_108924121.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a7/ae/3a/d7aaa7c0bae2a1059d79e9d7870006af.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/a8/e0/0fabf09e71ac203abefa2d19dc473ca7.jpg</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>18820000</v>
+        <v>9420000</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>242106763</v>
+        <v>163143032</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>206307542</v>
+        <v>67982880</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>laptop hp pavilion 15-eg2058tu (6k788pa) (i5-1240p | 8gb | 256gb | intel iris xe graphics | 15.6' fhd | win 11) hang chinh hang</t>
+          <t>lenovo v14 iil</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>hp</t>
+          <t>lenovo</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>images/laptop/product_206307542.jpg</t>
+          <t>images/laptop/product_67982880.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3f/a6/a4/140ce4c6780c706edcfdcabcf61950b0.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/db/b5/11/9b49a332d68f5f3e77ba0cd203e4da60.jpg</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>14520000</v>
+        <v>10120000</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="I38" t="n">
-        <v>203972134</v>
+        <v>67982881</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>189371737</v>
+        <v>278229740</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>apple macbook air m2 13.6 inch - 16gb/ 256gb - mc7x4sa/a</t>
+          <t>hp envy x360 14</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>hp</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>images/laptop/product_189371737.jpg</t>
+          <t>images/laptop/product_278229740.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/media/catalog/producttmp/5d/f8/b9/8a014046b6dff053e26820da02169d2a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/89/5f/7b/77661c5bc169a60097c58e905ea983cd.png</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>19960000</v>
+        <v>27300000</v>
       </c>
       <c r="G39" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>201859611</v>
+        <v>278229741</v>
       </c>
       <c r="J39" t="n">
-        <v>268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>108924121</v>
+        <v>278078311</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>laptop dell latitude 3520 70251603 (core i3-1115g4/ 4 gb/ 256gb ssd/ 15.6hd/ fedora) - hang chinh hang</t>
+          <t>asus vivobook 15</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>dell</t>
+          <t>asus</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>images/laptop/product_108924121.jpg</t>
+          <t>images/laptop/product_278078311.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/a8/e0/0fabf09e71ac203abefa2d19dc473ca7.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/78/9c/37/5699ccee6cd1d7b5b68bff00b80dc608.jpg</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>9420000</v>
+        <v>18600000</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>163143032</v>
+        <v>278078312</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>67982880</v>
+        <v>278076593</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>laptop lenovo v14 iil - 82c400w3vn | intel core i5 _ 1035g1 | 4gb | 256gb ssd pcie | vga intel  | 14 inch hd | freedos | hang chinh hang</t>
+          <t>asus vivobook 15</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>lenovo</t>
+          <t>asus</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>images/laptop/product_67982880.jpg</t>
+          <t>images/laptop/product_278076593.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/db/b5/11/9b49a332d68f5f3e77ba0cd203e4da60.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6a/da/ae/cceb0332cd470a4390b34259137fc374.jpg</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>10120000</v>
+        <v>14260000</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>67982881</v>
+        <v>278076594</v>
       </c>
       <c r="J41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>278229740</v>
+        <v>277912740</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>laptop hp envy x360 14-fc0161tu (core ultra 5-125u| 16gb ram| 512gb ssd| intel graphics| 14"2.8k| blue) - hang chinh hang</t>
+          <t>acer aspire 5 gaming</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>hp</t>
+          <t>acer</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>images/laptop/product_278229740.jpg</t>
+          <t>images/laptop/product_277912740.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/89/5f/7b/77661c5bc169a60097c58e905ea983cd.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/65/83/e1/43688269800cd87d7b13b2fc04bd7a4a.jpg</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>27300000</v>
+        <v>18200000</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>278229741</v>
+        <v>277912741</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2127,30 +2127,30 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>278078311</v>
+        <v>277912721</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>asus vivobook 15 a1505v-l1688w (intel core i7-13620h | 16gb | 512gb | intel uhd | 15.6 inch fhd | win 11 | bac) - hang chinh hang</t>
+          <t>acer nitro lite 16</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>asus</t>
+          <t>acer</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>images/laptop/product_278078311.jpg</t>
+          <t>images/laptop/product_277912721.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/78/9c/37/5699ccee6cd1d7b5b68bff00b80dc608.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/65/eb/8f/605a790fe74b2edc8b97373c955f0674.jpg</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>18600000</v>
+        <v>20900000</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>278078312</v>
+        <v>277912727</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2167,39 +2167,39 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>278076593</v>
+        <v>277912717</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>asus vivobook 15 x1504va-bq2076w (intel core i5-1334u | 16gb | 512gb | intel iris xe | 15.6 inch fhd ips | win 11 | bac) - hang chinh hang</t>
+          <t>acer aspire 7</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>asus</t>
+          <t>acer</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>images/laptop/product_278076593.jpg</t>
+          <t>images/laptop/product_277912717.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6a/da/ae/cceb0332cd470a4390b34259137fc374.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2e/ed/35/0f83fbe0583f484f7079dde894fce6ac.jpg</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>14260000</v>
+        <v>21750000</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>278076594</v>
+        <v>277912718</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2207,11 +2207,11 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>277912740</v>
+        <v>277912715</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>laptop acer gaming aspire 5 a515-58gm-53cm nx.kw1sv.003 (intel core i5-13420h | rtx 2050 4gb | 32gb | 512gb | 15.6 inch fhd | xam | win 11) - hang chinh hang</t>
+          <t>acer aspire 7</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2221,16 +2221,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>images/laptop/product_277912740.jpg</t>
+          <t>images/laptop/product_277912715.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/65/83/e1/43688269800cd87d7b13b2fc04bd7a4a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3e/19/e2/f5b790ba517f48f43f88f711a93ba492.jpg</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>18200000</v>
+        <v>19375000</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>277912741</v>
+        <v>277912716</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2247,30 +2247,30 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>277912721</v>
+        <v>277672516</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>laptop acer gaming nitro lite 16 nl16-71g-56wq (intel core i5-13420h | rtx3050 | 16 inch fhd+ | 16gb | 512gb | win 11 home | trang) - hang chinh hang</t>
+          <t>hp 240 g9</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>acer</t>
+          <t>hp</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>images/laptop/product_277912721.jpg</t>
+          <t>images/laptop/product_277672516.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/65/eb/8f/605a790fe74b2edc8b97373c955f0674.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/53/2f/9f/bfecd76a1ebfe0b7657dc2fe74079fd8.jpg</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>20900000</v>
+        <v>14790000</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>277912727</v>
+        <v>277672517</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2287,30 +2287,30 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>277912717</v>
+        <v>277466579</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>laptop acer aspire 7 a715-59g-73lb nh.qx6sv.002 (intel core i7-12650h | rtx 3050 6gb | 15.6 inch fhd ips 144hz | 16gb | 512gb | win 11 | đen) - hang chinh hang</t>
+          <t>asus expertbook p1403cva</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>acer</t>
+          <t>asus</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>images/laptop/product_277912717.jpg</t>
+          <t>images/laptop/product_277466579.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2e/ed/35/0f83fbe0583f484f7079dde894fce6ac.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/49/de/6c/eff4593d00ec470babc53f8647457e0f.png</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>21750000</v>
+        <v>16955000</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>277912718</v>
+        <v>276851763</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2327,11 +2327,11 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>277912715</v>
+        <v>277462473</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>laptop acer aspire 7 a715-59g-57tu nh.qx6sv.001 (intel core i5-12450h | rtx 3050 | 15.6 inch fhd | 16gb | 512gb | win 11 | đen) - hang chinh hang</t>
+          <t>acer aspire lite 15</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2341,16 +2341,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>images/laptop/product_277912715.jpg</t>
+          <t>images/laptop/product_277462473.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3e/19/e2/f5b790ba517f48f43f88f711a93ba492.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ce/84/c7/93187b7ae7acededa100e6cc02e79828.jpg</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>19375000</v>
+        <v>11815000</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>277912716</v>
+        <v>277462474</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -2367,30 +2367,30 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>277672516</v>
+        <v>277446629</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>laptop hp 240 g9 ag2j7at( i5-1235u/ 16gd4 /512gssd/ 14.0fhd/ wlax/ bt5/ 3c41whr/w11sl/bac ) - hang chinh hang</t>
+          <t>lenovo v14 gen 4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>hp</t>
+          <t>lenovo</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>images/laptop/product_277672516.jpg</t>
+          <t>images/laptop/product_277446629.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/53/2f/9f/bfecd76a1ebfe0b7657dc2fe74079fd8.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/74/aa/bc/5a87679708539a7edf488f20ac9e5c58.jpg</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>14790000</v>
+        <v>13570000</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>277672517</v>
+        <v>277446632</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -2407,39 +2407,39 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>277466579</v>
+        <v>277361271</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[laptop i5-13420h] laptop asus expertbook p1403cva (intel core i5-13420h | 14 inch fhd ips | ram 16gb | ssd 512gb | win ban quyen)</t>
+          <t>hp probook 450 g9</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>asus</t>
+          <t>hp</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>images/laptop/product_277466579.jpg</t>
+          <t>images/laptop/product_277361271.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/49/de/6c/eff4593d00ec470babc53f8647457e0f.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3c/75/71/848e43b9655e2ebf46d470b175a8aa29.jpg</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>16955000</v>
+        <v>12080000</v>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>276851763</v>
+        <v>277361272</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -2447,30 +2447,30 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>277462473</v>
+        <v>276603695</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>laptop acer aspire lite 15 al15 41p r3ql r7 5700u/8gb/512gb/win11 (nx.j54sv.001) - hang chinh hang</t>
+          <t>msi thin 15</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>acer</t>
+          <t>msi</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>images/laptop/product_277462473.jpg</t>
+          <t>images/laptop/product_276603695.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ce/84/c7/93187b7ae7acededa100e6cc02e79828.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/89/09/1a/2f279301e492a813f79570dda97f3231.jpg</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>11815000</v>
+        <v>15850000</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>277462474</v>
+        <v>276603696</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -2487,30 +2487,30 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>277446629</v>
+        <v>276366329</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>laptop lenovo v14 gen 4 iru 83a000bevn i5-13420h | 8gb | 512gb | 14' fhd | win 11 - hang chinh hang</t>
+          <t>lg gram 17</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>lenovo</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>images/laptop/product_277446629.jpg</t>
+          <t>images/laptop/product_276366329.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/74/aa/bc/5a87679708539a7edf488f20ac9e5c58.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/08/76/a5/de3fb3d1d1fc711156c60fb4616a2f63.png</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>13570000</v>
+        <v>45249000</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>277446632</v>
+        <v>276366332</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -2527,30 +2527,30 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>277363548</v>
+        <v>276366221</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>laptop hp probook 440 g10 9h8u4pt (i5 1335u/ 8gb/ 512gb ssd/14 inch fhd/win11/ silver/ vo nhom) - hang chinh hang</t>
+          <t>lg gram 14</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>hp</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>images/laptop/product_277363548.jpg</t>
+          <t>images/laptop/product_276366221.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3b/f6/e9/af3add978120e7f1fa143af0fbd52e33.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8b/28/d5/52a69fbfa364ddf143e5d283b5be1011.png</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>18515000</v>
+        <v>34739000</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>277363551</v>
+        <v>276366224</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -2567,30 +2567,30 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>277361271</v>
+        <v>276366080</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>laptop hp probook 450 g9 6m0y5pa (i3 1215u/ 8gb/ 512gb ssd/15.6 inch/win11/ silver) - hang chinh hang</t>
+          <t>asus vivobook 15 oled</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>hp</t>
+          <t>asus</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>images/laptop/product_277361271.jpg</t>
+          <t>images/laptop/product_276366080.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3c/75/71/848e43b9655e2ebf46d470b175a8aa29.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/80/be/2f/78fe966f420d3c69eff19883d1a33df0.jpg</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>12080000</v>
+        <v>16815000</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>277361272</v>
+        <v>276366082</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -2607,30 +2607,30 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>276603695</v>
+        <v>276365829</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>msi thin 15 b12uc-1416vn (intel core i5-12450h | rtx 3050 4gb | 15.6 inch fhd | 8gb | win 11 | xam) - hang chinh hang</t>
+          <t>asus vivobook go 15</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>msi</t>
+          <t>asus</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>images/laptop/product_276603695.jpg</t>
+          <t>images/laptop/product_276365829.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/89/09/1a/2f279301e492a813f79570dda97f3231.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/17/4c/f8/4845fd322e80b270b7f1a21f9b65da76.jpg</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>15850000</v>
+        <v>11549000</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>276603696</v>
+        <v>276365830</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -2647,30 +2647,30 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>276366329</v>
+        <v>275746519</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>laptop lg gram 2024 17z90s-g.ah78a5 (intel core ultra 7 155h | 16gb | 1tb | intel arc | 17 inch wqxga | win 11 | đen) - hang chinh hang - bao hanh 12 thang</t>
+          <t>acer nitro v anv15</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>acer</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>images/laptop/product_276366329.jpg</t>
+          <t>images/laptop/product_275746519.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/08/76/a5/de3fb3d1d1fc711156c60fb4616a2f63.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/87/4f/2d/422aae6f11c77595e6762d7758c8414e.png</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>45249000</v>
+        <v>23200000</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>276366332</v>
+        <v>275746520</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -2687,30 +2687,30 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>276366221</v>
+        <v>275721993</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>laptop lg gram 2024 14z90s-g.ah75a5 (intel core ultra 7 155h |16gb | 512gb | intel arc | 14 inch wuxga | win11 | đen) - hang chinh hang - bao hanh 12 thang</t>
+          <t>hp 15-fd0235tu</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>hp</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>images/laptop/product_276366221.jpg</t>
+          <t>images/laptop/product_275721993.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8b/28/d5/52a69fbfa364ddf143e5d283b5be1011.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/41/ef/09/1856c31e2c452bbeac12f85a218c4bce.png</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>34739000</v>
+        <v>14900000</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>276366224</v>
+        <v>275721994</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -2727,30 +2727,30 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>276366080</v>
+        <v>275382529</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>laptop asus vivobook 15 oled a1505va-ma468w (intel core i5-13500h | 16gb | 512gb | intel iris xe | 15.6 inch 2.8k | win 11 | đen) - hang chinh hang</t>
+          <t>acer n22q25</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>asus</t>
+          <t>acer</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>images/laptop/product_276366080.jpg</t>
+          <t>images/laptop/product_275382529.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/80/be/2f/78fe966f420d3c69eff19883d1a33df0.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e6/24/b2/2e370c77354265867449415018c9844c.png</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>16815000</v>
+        <v>14840000</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>276366082</v>
+        <v>275382530</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -2767,30 +2767,30 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>276365829</v>
+        <v>275154280</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>laptop asus vivobook go 15 e1504fa-nj454w (ryzen 5 7520u | 16gb | 512gb | 15.6 inch fhd | amd radeon graphics | win 11 | bac) - hang chinh hang</t>
+          <t>dell latitude 7430</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>asus</t>
+          <t>dell</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>images/laptop/product_276365829.jpg</t>
+          <t>images/laptop/product_275154280.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/17/4c/f8/4845fd322e80b270b7f1a21f9b65da76.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/c2/71/0218ffcde5582b38502c8a2f5ebad629.jpg</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>11549000</v>
+        <v>21020000</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>276365830</v>
+        <v>275154281</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -2807,11 +2807,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>275854376</v>
+        <v>273647623</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>laptop hp 15 fd1043tu 9z2w9pa (core 5 120u/ 16gb/ 1tb ssd/ 15.6 inch fhd/ win11/ bac) - hang chinh hang</t>
+          <t>hp pavilion 15</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2821,16 +2821,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>images/laptop/product_275854376.jpg</t>
+          <t>images/laptop/product_273647623.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0b/b5/88/7a745e1be60d35000868ec8e99ab96ae.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8d/f0/57/04ece7be81852bc9e61ad3fe507120ab.png</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>17550000</v>
+        <v>17740000</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>275854377</v>
+        <v>273647624</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -2847,30 +2847,30 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>275850110</v>
+        <v>273231142</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>laptop hp elitebook 630 g10 9j0b3pt (i5 1335u/ 8gb/ 512gb ssd/13.3 inch fhd/win11/ silver/ vo nhom) - hang chinh hang</t>
+          <t>dell vostro 3430</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>hp</t>
+          <t>dell</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>images/laptop/product_275850110.jpg</t>
+          <t>images/laptop/product_273231142.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ac/ed/15/c7847e98527242dba0721bbb18cfeb8c.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bc/e6/64/ed77e9ad050ebd69fd067036166b3d8d.jpg</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>20040000</v>
+        <v>24470000</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>275850111</v>
+        <v>273231143</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -2887,39 +2887,39 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>275746519</v>
+        <v>252566338</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>laptop gaming acer nitro v anv15-51-55ca nh.qn8sv.004 (intel core i5-13420h | rtx 4050 6gb | 16gb | 512gb | 15.6 inch fhd | win 11 | đen) - hang chinh hang</t>
+          <t>asus vivobook 15</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>acer</t>
+          <t>asus</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>images/laptop/product_275746519.jpg</t>
+          <t>images/laptop/product_252566338.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/87/4f/2d/422aae6f11c77595e6762d7758c8414e.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e3/d2/5b/91bbb30a1a3e470617f7fad6480bcea7.jpg</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>23200000</v>
+        <v>14950000</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>275746520</v>
+        <v>252566339</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -2927,30 +2927,30 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>275721993</v>
+        <v>225934432</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>laptop hp 15-fd0235tu 9q970pa (intel core i5-1334u | 16gb | 512gb | iris xe graphics | 15.6 inch fhd | windows 11 | natural silver) - hang chinh hang - bao hanh 12 thang</t>
+          <t>lg gram 14</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>hp</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>images/laptop/product_275721993.jpg</t>
+          <t>images/laptop/product_225934432.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/41/ef/09/1856c31e2c452bbeac12f85a218c4bce.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3e/7f/b2/59de1aa6769a04980bf32166ccc700d8.jpg</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>14900000</v>
+        <v>22210000</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>275721994</v>
+        <v>225954326</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -2967,30 +2967,30 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>275382529</v>
+        <v>214863401</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>may tinh xach tay acer n22q25 (a515-58gm-53pz) (i5-13420h;8gb; 512gb ssd; rtx2050/4gb;15.6" fhd; win11; xam;nx.kq4sv.008) - hang chinh hang</t>
+          <t>lg gram 14</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>acer</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>images/laptop/product_275382529.jpg</t>
+          <t>images/laptop/product_214863401.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e6/24/b2/2e370c77354265867449415018c9844c.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/01/08/6d/7a5797d6c8a330917cb92d357a681951.jpg</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>14840000</v>
+        <v>32590000</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>275382530</v>
+        <v>225954322</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3007,30 +3007,30 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>275154280</v>
+        <v>214863371</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>laptop dell latitude 7430 cto-14"fhd/i5-1235u/8gb/m.2 256gb/win10pro/3ypro - hang chinh hang</t>
+          <t>lg gram 14</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>dell</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>images/laptop/product_275154280.jpg</t>
+          <t>images/laptop/product_214863371.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/c2/71/0218ffcde5582b38502c8a2f5ebad629.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9b/f2/92/10fd7166684ce40596f2ffbe980a9ced.jpg</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>21020000</v>
+        <v>24550000</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>275154281</v>
+        <v>225956326</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -3047,30 +3047,30 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>273647623</v>
+        <v>214863351</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>laptop hp pavilion 15-eg3093tu 8c5l4pa (core i5-1335u | 16gb | 512gb | intel iris xe | 15.6 inch fhd | windows 11 | vang) - hang chinh hang - bao hanh 12 thang tai hp viet nam</t>
+          <t>lg gram 17</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>hp</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>images/laptop/product_273647623.jpg</t>
+          <t>images/laptop/product_214863351.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8d/f0/57/04ece7be81852bc9e61ad3fe507120ab.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c6/14/17/90c3d86839f01d3788cf51bdc1dc51e9.jpg</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>17740000</v>
+        <v>32590000</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>273647624</v>
+        <v>225906392</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -3087,30 +3087,30 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>273231142</v>
+        <v>198437064</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>laptop dell vostro 3430 (v3430-i7u165w11grd2) |core i7 _ 1355u | 16gb | 512gb ssd pcie |mx550 2gb| 14 inch full hd ips | win 11 _ office 2021| hang chinh hang</t>
+          <t>lg gram 14</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>dell</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>images/laptop/product_273231142.jpg</t>
+          <t>images/laptop/product_198437064.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bc/e6/64/ed77e9ad050ebd69fd067036166b3d8d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f8/ed/56/3543b5de6625c4b4f4749b519be210ff.jpg</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>24470000</v>
+        <v>22210000</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>273231143</v>
+        <v>225954327</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -3127,11 +3127,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252566338</v>
+        <v>189572223</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>laptop asus vivobook 15 (x1504va-nj069w) / bac/ intel core i3-1315u processor (upto 4.5ghz, 10mb)/ ram 8gb/ 512gb ssd/ intel uhd graphics/ 15.6inch fhd/ win 11h/ 2yrs - hang chinh hang</t>
+          <t>asus vivobook f415e</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3141,25 +3141,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>images/laptop/product_252566338.jpg</t>
+          <t>images/laptop/product_189572223.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e3/d2/5b/91bbb30a1a3e470617f7fad6480bcea7.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bf/0e/a9/62280749cd095d6dd351c8e01d2b7365.jpg</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>14950000</v>
+        <v>10720000</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>252566339</v>
+        <v>189572225</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -3167,30 +3167,30 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>225934432</v>
+        <v>189572199</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>laptop lg gram 2022 14zd90q-g.ax32a5 (intel core i3-1220p/8gb/256gb/vga intel uhd graphics/14 inch wqxga/mau đen/non- os)- hang chinh hang</t>
+          <t>asus vivobook x515ja</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>asus</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>images/laptop/product_225934432.jpg</t>
+          <t>images/laptop/product_189572199.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3e/7f/b2/59de1aa6769a04980bf32166ccc700d8.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/29/d3/ff/c375a5143579ff61d25375e3e55f5a2a.jpg</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>22210000</v>
+        <v>10320000</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>225954326</v>
+        <v>189572202</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -3207,30 +3207,30 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>225363237</v>
+        <v>160445997</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>may tinh xach tay laptop lg gram 14z90p-g.ah75a5 core i7-1165g7/ ram 16gb 4266mhz/ m.2(2280) dual ssd slots - nvme:  512gb/ intel iris xe graphics / 14.0"(30.2cm) wuxga (1920*1200) ips/ / bt 5.1/ pin 72whrs/ obsidian black/ win 10/ 999g - hang chinh hang</t>
+          <t>asus vivobook 15</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>asus</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>images/laptop/product_225363237.jpg</t>
+          <t>images/laptop/product_160445997.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1c/21/4a/053e334128c91eee2a58c52412504d14.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2e/65/61/62692ccf5b7db3bdabd8aa437f0f7298.jpg</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>30190000</v>
+        <v>15970000</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>225363816</v>
+        <v>225195011</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -3247,30 +3247,30 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>214863401</v>
+        <v>158583221</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>laptop lg gram 2022 14zd90q-g.ax56a5 (i5-1240p | 16gb | 512gb | intel iris xe graphics | 14' wuxga 99% dci-p3 | dos) hang chinh hang</t>
+          <t>msi modern 14</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>msi</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>images/laptop/product_214863401.jpg</t>
+          <t>images/laptop/product_158583221.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/01/08/6d/7a5797d6c8a330917cb92d357a681951.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6d/fc/25/42afb0c0cf52cf8f83a0f98d5e550ff7.jpg</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>32590000</v>
+        <v>21960000</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>225954322</v>
+        <v>158583222</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -3287,30 +3287,30 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>214863371</v>
+        <v>158583026</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>laptop lg gram 2022 14z90q-g.aj32a5 (i3-1220p | 8gb | 256gb | intel uhd graphics | 14' wuxga 99% dci-p3 | win 11) hang chinh hang</t>
+          <t>msi modern 14</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>msi</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>images/laptop/product_214863371.jpg</t>
+          <t>images/laptop/product_158583026.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9b/f2/92/10fd7166684ce40596f2ffbe980a9ced.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e3/a7/5a/bc0d48d4659e0d2bb24b9920e737a018.jpg</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>24550000</v>
+        <v>14460000</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>225956326</v>
+        <v>158583027</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -3327,30 +3327,30 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>214863351</v>
+        <v>155974507</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>laptop lg gram 2021 17z90p-g.ah76a5 i7-1165g7 | 16gb | 512gb | intel iris xe graphics | 17' wqxga | win 10 hang chinh hang</t>
+          <t>hp 14s</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>hp</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>images/laptop/product_214863351.jpg</t>
+          <t>images/laptop/product_155974507.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c6/14/17/90c3d86839f01d3788cf51bdc1dc51e9.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1e/34/b4/006756d8e30705198fe156e235689321.jpg</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>32590000</v>
+        <v>14200000</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>225906392</v>
+        <v>168908856</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -3367,11 +3367,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>198437064</v>
+        <v>92621126</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>laptop lg gram 14'', khong he đieu hanh, intel core i3 gen 12, 8gb, 256gb, 14zd90q-g.ax32a5 - hang chinh hang</t>
+          <t>lg gram 17</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3381,16 +3381,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>images/laptop/product_198437064.jpg</t>
+          <t>images/laptop/product_92621126.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f8/ed/56/3543b5de6625c4b4f4749b519be210ff.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e1/1f/bc/fa056b1e5f54c36042b2755a642f11f4.jpg</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>22210000</v>
+        <v>33790000</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>225954327</v>
+        <v>216717416</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -3407,39 +3407,39 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>189572223</v>
+        <v>278454662</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>laptop asus vivobook f415e i3-1115g4/8gb/128ssd/uhd graphics/14"fhd/win10/xam moi 100%- hang nhap khau</t>
+          <t>lenovo thinkpad e14 gen 6</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>asus</t>
+          <t>lenovo</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>images/laptop/product_189572223.jpg</t>
+          <t>images/laptop/product_278454662.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bf/0e/a9/62280749cd095d6dd351c8e01d2b7365.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/75/e9/6cdaf46eac4a98bce8ac4e6e6d1c1a60.jpg</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>10720000</v>
+        <v>25920000</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>189572225</v>
+        <v>278454663</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -3447,30 +3447,30 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>189572199</v>
+        <v>278304793</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>laptop asus vivobook x515ja core i3-1005g1/8gb/256gb/15.6"hd/win 10/mau xam moi 100%-hang nhap khau</t>
+          <t>dell inspiron 15 3520</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>asus</t>
+          <t>dell</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>images/laptop/product_189572199.jpg</t>
+          <t>images/laptop/product_278304793.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/29/d3/ff/c375a5143579ff61d25375e3e55f5a2a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/35/cb/84/790b48c73b35378a391c011cf9fd5681.png</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>10320000</v>
+        <v>18350000</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>189572202</v>
+        <v>278304794</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -3487,30 +3487,30 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>160445997</v>
+        <v>278304363</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>laptop asus vivobook 15 r565ea uh51t (i5-1135g7/ 8g/ 256gb pcie/ 15.6 fhd/ cam ung/ win10/ xam) - hang nhap khau chinh hang</t>
+          <t>dell inspiron 15 3520</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>asus</t>
+          <t>dell</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>images/laptop/product_160445997.jpg</t>
+          <t>images/laptop/product_278304363.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2e/65/61/62692ccf5b7db3bdabd8aa437f0f7298.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c9/54/99/8b1432ffee329875e76d6cdb42ebaa4a.png</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>15970000</v>
+        <v>13840000</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>225195011</v>
+        <v>278304364</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -3527,30 +3527,30 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>158583221</v>
+        <v>278304303</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>laptop msi modern 14 b11sbu 668vn carbon gray (i5 1155g7/ 8gb/ 512gb ssd/ mx450 2gb/ w10) hang nk</t>
+          <t>dell inspiron 15 3520</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>msi</t>
+          <t>dell</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>images/laptop/product_158583221.jpg</t>
+          <t>images/laptop/product_278304303.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6d/fc/25/42afb0c0cf52cf8f83a0f98d5e550ff7.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d6/e6/f1/1a44b1539f5465cc5b28b699d74adbd5.png</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>21960000</v>
+        <v>13727000</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>158583222</v>
+        <v>278304304</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -3567,30 +3567,30 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>158583026</v>
+        <v>278227010</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>laptop msi modern 14 b11mou 851vn gray (i3 1115g4/ 8gb/ 256gb ssd/ w10) hang chinh hang</t>
+          <t>dell inspiron 3530</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>msi</t>
+          <t>dell</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>images/laptop/product_158583026.jpg</t>
+          <t>images/laptop/product_278227010.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e3/a7/5a/bc0d48d4659e0d2bb24b9920e737a018.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/0c/5f/ae65a4730ba203032beef5cdc6c959f8.png</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>14460000</v>
+        <v>15850000</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>158583027</v>
+        <v>278227011</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -3607,30 +3607,30 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>155974507</v>
+        <v>278226626</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>laptop hp 14s-fq1080au 4k0z7pa (amd r3-5300u/ 4gb ddr4/ 256gb ssd/ 14 hd/ win 11) - hang chinh hang</t>
+          <t>dell inspiron 15 3520</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>hp</t>
+          <t>dell</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>images/laptop/product_155974507.jpg</t>
+          <t>images/laptop/product_278226626.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1e/34/b4/006756d8e30705198fe156e235689321.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6f/66/9b/e8d51754d73efdb5901536e4262d644b.png</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>14200000</v>
+        <v>13675000</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>168908856</v>
+        <v>278226627</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -3647,30 +3647,30 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>92621126</v>
+        <v>278078315</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>laptop lg gram 2021 17z90p-g.ah78a5 (core i7-1165g7/ 16gb lpddr4x/ 1tb ssd nvme/ 17 wqxga ips/ win10) - hang chinh hang</t>
+          <t>asus vivobook 15</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>asus</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>images/laptop/product_92621126.jpg</t>
+          <t>images/laptop/product_278078315.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e1/1f/bc/fa056b1e5f54c36042b2755a642f11f4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2a/28/29/3daa0a5be1e12eeff9d5295da94e42d9.jpg</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>33790000</v>
+        <v>13550000</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>216717416</v>
+        <v>278078316</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -3687,30 +3687,30 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>278454662</v>
+        <v>278076596</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>laptop lenovo thinkpad e14 gen 6 (21m7004xva) | ultra 7 155h | 16gb | 1tb | npu 11 tops | 14 inch wuxga | ips | hang chinh hang</t>
+          <t>asus expertbook b1 b1403cta</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>lenovo</t>
+          <t>asus</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>images/laptop/product_278454662.jpg</t>
+          <t>images/laptop/product_278076596.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/75/e9/6cdaf46eac4a98bce8ac4e6e6d1c1a60.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/71/99/3f/84fb391986c91682a94334304e844856.jpg</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>25920000</v>
+        <v>9259000</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>278454663</v>
+        <v>278076598</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -3727,30 +3727,30 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>278304793</v>
+        <v>275850187</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>laptop dell inspiron 15 3520 71069202 ( core i7-1255u| 16gb| 512gb ssd| intel iris xe graphics| 15.6" fhd| đen) - hang chinh hang - bao hanh 12 thang tai dell viet nam</t>
+          <t>hp envy x360 14</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>dell</t>
+          <t>hp</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>images/laptop/product_278304793.jpg</t>
+          <t>images/laptop/product_275850187.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/35/cb/84/790b48c73b35378a391c011cf9fd5681.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6a/29/36/d40ee148944540cb05b639a48945ce03.png</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>18350000</v>
+        <v>27600000</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>278304794</v>
+        <v>275850188</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -3767,30 +3767,30 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>278304363</v>
+        <v>275516477</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>laptop dell inspiron 15 3520 n5i5003w1 (core i5 - 1235u| 8gb| 512gb ssd nvme| 15.6" fhd 1920 x 1080| black) - hang chinh hang - bao hanh 12 thang tai dell viet nam</t>
+          <t>hp 14</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>dell</t>
+          <t>hp</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>images/laptop/product_278304363.jpg</t>
+          <t>images/laptop/product_275516477.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c9/54/99/8b1432ffee329875e76d6cdb42ebaa4a.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ab/94/3d/33bd002169659e6530b6b347693968e8.png</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>13840000</v>
+        <v>15300000</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>278304364</v>
+        <v>275516482</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -3807,30 +3807,30 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>278304303</v>
+        <v>275381290</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>laptop dell inspiron 15 3520 71058652 ( i5-1235u| 8gb| 512gb ssd| 15.6" fhd|  bac (platinum silver))  - hang chinh hang - bao hanh 12 thang tai dell viet nam</t>
+          <t>acer aspire 7</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>dell</t>
+          <t>acer</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>images/laptop/product_278304303.jpg</t>
+          <t>images/laptop/product_275381290.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d6/e6/f1/1a44b1539f5465cc5b28b699d74adbd5.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a9/02/56/489ddd7ae5d52b0f52b1fbf5bd6b21cf.png</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>13727000</v>
+        <v>13700000</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>278304304</v>
+        <v>275381291</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -3847,30 +3847,30 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>278227010</v>
+        <v>274775419</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>dell inspiron 3530  71053696( core i5-1334u| 16gb| 512gb ssd| intel iris xe graphics| 15.6" fhd| bac (platinum silver)) - hang chinh hang- bao hanh 12 thang tai dell viet nam</t>
+          <t>lenovo thinkpad e16 gen 3</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>dell</t>
+          <t>lenovo</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>images/laptop/product_278227010.jpg</t>
+          <t>images/laptop/product_274775419.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/0c/5f/ae65a4730ba203032beef5cdc6c959f8.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f7/91/c0/18d4091d0d0a24585bde2c3a4c3300d7.jpg</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>15850000</v>
+        <v>21920000</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>278227011</v>
+        <v>274775420</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -3887,30 +3887,30 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>278226626</v>
+        <v>273634022</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>laptop dell inspiron 15 3520 n3520-i5u085w11slu( core i5-1235u| 8gb| 512gb ssd| 15.6" fhd| bac) - hang chinh hang - bao hanh 12 thang tai dell viet nam</t>
+          <t>hp pavilion 15</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>dell</t>
+          <t>hp</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>images/laptop/product_278226626.jpg</t>
+          <t>images/laptop/product_273634022.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6f/66/9b/e8d51754d73efdb5901536e4262d644b.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c5/3b/92/8d3c192d0e2f9665571a8646f7b33849.png</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>13675000</v>
+        <v>15110000</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>278226627</v>
+        <v>273634023</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -3927,30 +3927,30 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>278078315</v>
+        <v>273239856</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>asus vivobook 15 x1504va-nj1969w (intel core i5-1334u | 16gb | 512gb | intel iris xe | 15.6 inch fhd ips | win 11 | bac) - hang chinh hang</t>
+          <t>lenovo thinkpad e14 gen 6</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>asus</t>
+          <t>lenovo</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>images/laptop/product_278078315.jpg</t>
+          <t>images/laptop/product_273239856.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2a/28/29/3daa0a5be1e12eeff9d5295da94e42d9.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/75/e9/0acd44a8cb5ccad0585b27fd392f431b.jpg</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>13550000</v>
+        <v>25920000</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>278078316</v>
+        <v>273239857</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -3967,39 +3967,39 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>278076596</v>
+        <v>271949876</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>asus expertbook b1 b1403cta-s60046w (i3-n355 | ram 8gb ddr5 | ssd 256gb | man hinh 14 fhd | win 11 | xam) - hang chinh hang</t>
+          <t>lenovo v15 g4</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>asus</t>
+          <t>lenovo</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>images/laptop/product_278076596.jpg</t>
+          <t>images/laptop/product_271949876.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/71/99/3f/84fb391986c91682a94334304e844856.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/be/f8/1c/0d92c40b96908d1bb98fcd1a9d6733b0.jpg</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>9259000</v>
+        <v>12820000</v>
       </c>
       <c r="G89" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>278076598</v>
+        <v>271949877</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -4007,30 +4007,30 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>275852844</v>
+        <v>247667322</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>laptop hp pavilion 15-eg3091tu 8c5l2pa (i7 1355u/ 16gb/ 512gb ssd/15.6 inch fhd/win11/ gold/ vo nhom) - hang chinh hang</t>
+          <t>lenovo v14 gen 4</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>hp</t>
+          <t>lenovo</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>images/laptop/product_275852844.jpg</t>
+          <t>images/laptop/product_247667322.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7c/c9/3b/86cef58040c45f2db92fb288277627af.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/48/fe/f7/af958518c1e69b92ca76f08e6f084407.jpg</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>22240000</v>
+        <v>12920000</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>275852845</v>
+        <v>247667323</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -4047,30 +4047,30 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>275850187</v>
+        <v>225940640</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>laptop hp envy x360 14-fc0091tu (a19c1pa) (ultra5 125u/16gb ram/1tb ssd/14 2.8k cam ung/but/win11/xanh) - hang chinh hang</t>
+          <t>lg gram 14</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>hp</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>images/laptop/product_275850187.jpg</t>
+          <t>images/laptop/product_225940640.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6a/29/36/d40ee148944540cb05b639a48945ce03.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3e/7f/b2/ceb645876870d6fc2c59ccecdca571ed.jpg</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>27600000</v>
+        <v>32590000</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>275850188</v>
+        <v>225954345</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -4087,30 +4087,30 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>275516477</v>
+        <v>205305968</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>laptop hp 14 - ep0112tu 8c5l1pa (intel core i5-1335u | 16gb | 512gb | intel iris xe | 14 inch fhd | win 11 | bac) - hang chinh hang - bao hanh 12 thang</t>
+          <t>lenovo thinkpad e14 gen 7</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>hp</t>
+          <t>lenovo</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>images/laptop/product_275516477.jpg</t>
+          <t>images/laptop/product_205305968.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ab/94/3d/33bd002169659e6530b6b347693968e8.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/75/e9/4be6f57ca7bc16a58683def0c792ec27.jpg</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>15300000</v>
+        <v>13670000</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>275516482</v>
+        <v>205305969</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -4127,30 +4127,30 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>275381290</v>
+        <v>205303070</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>may tinh xach tay (nb) acer aspire 7 a715-76-53pj i5-12450h/16gd4/512ssd_pcie/15.6fhd/fp/ips/4c/w11sl/đen(nh.qgesv.007) - hang chinh hang</t>
+          <t>dell inspiron 5620</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>acer</t>
+          <t>dell</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>images/laptop/product_275381290.jpg</t>
+          <t>images/laptop/product_205303070.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a9/02/56/489ddd7ae5d52b0f52b1fbf5bd6b21cf.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9c/18/51/5a7a88a6c7d10f751a9979dc182f7c0f.jpg</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>13700000</v>
+        <v>18920000</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -4159,329 +4159,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>275381291</v>
+        <v>205303071</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>274775419</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>lenovo thinkpad e16 gen 3 (21sr002jva) | intel core ultra 5 225u | 16gb | 512gb | intel graphics | 16.0 inch wuxga | no os | black | ai pc</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>lenovo</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>images/laptop/product_274775419.jpg</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f7/91/c0/18d4091d0d0a24585bde2c3a4c3300d7.jpg</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>21920000</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>274775420</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>273634022</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>laptop hp pavilion 15-eg2083tu 7c0w9pa (core i5-1240p | 8gb | 512gb | intel iris xe | 15.6 inch fhd ips | win 11 | bac) - hang chinh hang - bao hanh 12 thang tai hp viet nam</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>hp</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>images/laptop/product_273634022.jpg</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c5/3b/92/8d3c192d0e2f9665571a8646f7b33849.png</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>15110000</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>273634023</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>273239856</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>laptop lenovo thinkpad e14 gen 6 (21m7004wva) | intel ultra 7 155h | 16gb | 512gb | intel® arcTM graphics | 14inch wuxga | no os | đen</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>lenovo</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>images/laptop/product_273239856.jpg</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/75/e9/0acd44a8cb5ccad0585b27fd392f431b.jpg</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>25920000</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>273239857</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>271949876</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>laptop lenovo v15 g4 iru (83a100urvn) | intel core i5-13420h | 8gb | 512gb ssd | intel uhd graphics | 15.6 inch fhd | no os | grey</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>lenovo</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>images/laptop/product_271949876.jpg</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/be/f8/1c/0d92c40b96908d1bb98fcd1a9d6733b0.jpg</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>12820000</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>271949877</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>247667322</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>laptop lenovo v14 gen 4 (83a000fnvn) | intel core i5-13420h | 16gb | 512gb | 14.0" fhd | no os | grey</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>lenovo</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>images/laptop/product_247667322.jpg</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/48/fe/f7/af958518c1e69b92ca76f08e6f084407.jpg</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>12920000</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>247667323</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>225940640</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>laptop lg gram 2022 14zd90q-g.ax56a5 (core i5-1240p/16gb /512gb/ iris xe graphics/14 inch wuxga/ non-os/ grey)- hang chinh hang</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>lg</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>images/laptop/product_225940640.jpg</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3e/7f/b2/ceb645876870d6fc2c59ccecdca571ed.jpg</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>32590000</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>225954345</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>205305968</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>laptop lenovo thinkpad e14 gen 7 (21sx002qva) | intel core ultra 5 225u | ram 16gb | 512gb ssd | intel graphics | 14 inch wuxga | fingerprint | wf+bl | 3 cell | noos | 2yrs</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>lenovo</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>images/laptop/product_205305968.jpg</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/75/e9/4be6f57ca7bc16a58683def0c792ec27.jpg</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>13670000</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>205305969</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>205303070</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>laptop dell inspiron 5620 | n5620 - i5p165w11slu (intel core i5 _ 1240p | 16gb | 512gb ssd | intel iris xe  | 16.0 inch full hd+ | win 11 _ office 2021 | finger | led key ) - hang chinh hang</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>dell</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>images/laptop/product_205303070.jpg</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9c/18/51/5a7a88a6c7d10f751a9979dc182f7c0f.jpg</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>18920000</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>205303071</v>
-      </c>
-      <c r="J101" t="n">
         <v>1</v>
       </c>
     </row>

--- a/pre-processing/data_cleaned/laptop.xlsx
+++ b/pre-processing/data_cleaned/laptop.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
